--- a/przykładowy.xlsx
+++ b/przykładowy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Nowy tytuł" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Moj nowy worksheet2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Moj nowy worksheet3" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Moj nowy worksheet4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Moj nowy worksheet5" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -48,15 +49,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -485,7 +486,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -503,7 +504,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -521,7 +522,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -539,7 +540,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -557,7 +558,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -575,6 +576,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>